--- a/plots/sensationsPlots.xlsx
+++ b/plots/sensationsPlots.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\_CogNeurPhD\03-Experiment_tDCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\_CogNeurPhD\03-Experiment_tDCS\Report\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
-  <si>
-    <t>b</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>sum(itching, pain, burning, heat, taste, fatigue)</t>
   </si>
@@ -31,9 +28,6 @@
   </si>
   <si>
     <t>affected</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>max</t>
@@ -87,9 +81,6 @@
     <t>affected4</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>meanMax</t>
   </si>
   <si>
@@ -112,6 +103,27 @@
   </si>
   <si>
     <t>Strong</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>day2</t>
+  </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>95%CI</t>
   </si>
 </sst>
 </file>
@@ -853,7 +865,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.19767206471598903</c:v>
+                    <c:v>0.21179149790998827</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -865,7 +877,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.19767206471598903</c:v>
+                    <c:v>0.21179149790998827</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -951,7 +963,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.30229136773304854</c:v>
+                    <c:v>0.32388360828540913</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -963,7 +975,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.30229136773304854</c:v>
+                    <c:v>0.32388360828540913</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1512,7 +1524,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1595,7 +1609,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.1279277599872769</c:v>
+                    <c:v>0.13706545712922527</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1607,7 +1621,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.1279277599872769</c:v>
+                    <c:v>0.13706545712922527</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1693,7 +1707,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.13864417441995794</c:v>
+                    <c:v>0.14854732973566923</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1705,7 +1719,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.13864417441995794</c:v>
+                    <c:v>0.14854732973566923</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2255,7 +2269,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2338,7 +2354,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.21807347075548419</c:v>
+                    <c:v>0.2336501472380188</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2350,7 +2366,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.21807347075548419</c:v>
+                    <c:v>0.2336501472380188</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2436,7 +2452,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.27046693133680044</c:v>
+                    <c:v>0.28978599786085762</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2448,7 +2464,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.27046693133680044</c:v>
+                    <c:v>0.28978599786085762</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2998,7 +3014,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4694,19 +4712,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>46264</xdr:rowOff>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>59336</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>8710</xdr:rowOff>
+      <xdr:colOff>481157</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4723,20 +4747,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>103413</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>541027</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>53614</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>527420</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>80825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4755,20 +4785,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>453799</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>94911</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154442</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>153968</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171596</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>126751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5112,13 +5148,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA563"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="3"/>
@@ -5140,26 +5176,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B1" s="9">
-        <v>1</v>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="9">
-        <v>2</v>
+      <c r="F1" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="9">
-        <v>3</v>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="9">
-        <v>4</v>
+      <c r="N1" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -5167,122 +5203,122 @@
     </row>
     <row r="2" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="W3" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
+      <c r="A4" s="11">
+        <v>0</v>
       </c>
       <c r="B4" s="17">
         <v>4</v>
@@ -5348,24 +5384,24 @@
         <v>0.5</v>
       </c>
       <c r="W4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
+      <c r="A5" s="11">
+        <v>0</v>
       </c>
       <c r="B5" s="17">
         <v>7</v>
@@ -5447,8 +5483,8 @@
       </c>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
+      <c r="A6" s="11">
+        <v>0</v>
       </c>
       <c r="B6" s="17">
         <v>4</v>
@@ -5515,8 +5551,8 @@
       </c>
     </row>
     <row r="7" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
+      <c r="A7" s="11">
+        <v>0</v>
       </c>
       <c r="B7" s="17">
         <v>0</v>
@@ -5583,8 +5619,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
+      <c r="A8" s="11">
+        <v>0</v>
       </c>
       <c r="B8" s="17">
         <v>3</v>
@@ -5651,8 +5687,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
+      <c r="A9" s="11">
+        <v>0</v>
       </c>
       <c r="B9" s="17">
         <v>4</v>
@@ -5719,8 +5755,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>4</v>
+      <c r="A10" s="11">
+        <v>0</v>
       </c>
       <c r="B10" s="17">
         <v>3</v>
@@ -5787,8 +5823,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>4</v>
+      <c r="A11" s="11">
+        <v>0</v>
       </c>
       <c r="B11" s="17">
         <v>2</v>
@@ -5855,8 +5891,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>4</v>
+      <c r="A12" s="11">
+        <v>0</v>
       </c>
       <c r="B12" s="17">
         <v>3</v>
@@ -5923,8 +5959,8 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>4</v>
+      <c r="A13" s="11">
+        <v>0</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5991,8 +6027,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>4</v>
+      <c r="A14" s="11">
+        <v>0</v>
       </c>
       <c r="B14" s="17">
         <v>3</v>
@@ -6059,8 +6095,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>4</v>
+      <c r="A15" s="11">
+        <v>0</v>
       </c>
       <c r="B15" s="17">
         <v>6</v>
@@ -6127,8 +6163,8 @@
       </c>
     </row>
     <row r="16" spans="1:27" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>4</v>
+      <c r="A16" s="11">
+        <v>0</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
@@ -6195,8 +6231,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>4</v>
+      <c r="A17" s="11">
+        <v>0</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -6263,8 +6299,8 @@
       </c>
     </row>
     <row r="18" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>4</v>
+      <c r="A18" s="11">
+        <v>0</v>
       </c>
       <c r="B18" s="17">
         <v>3</v>
@@ -6331,8 +6367,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>4</v>
+      <c r="A19" s="11">
+        <v>0</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
@@ -6399,8 +6435,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>4</v>
+      <c r="A20" s="11">
+        <v>0</v>
       </c>
       <c r="B20" s="17">
         <v>1</v>
@@ -6467,8 +6503,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>4</v>
+      <c r="A21" s="11">
+        <v>0</v>
       </c>
       <c r="B21" s="17">
         <v>1</v>
@@ -6535,8 +6571,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>4</v>
+      <c r="A22" s="11">
+        <v>0</v>
       </c>
       <c r="B22" s="17">
         <v>4</v>
@@ -6603,8 +6639,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>4</v>
+      <c r="A23" s="11">
+        <v>0</v>
       </c>
       <c r="B23" s="17">
         <v>6</v>
@@ -6671,8 +6707,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>4</v>
+      <c r="A24" s="11">
+        <v>0</v>
       </c>
       <c r="B24" s="17">
         <v>5</v>
@@ -6739,8 +6775,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>4</v>
+      <c r="A25" s="11">
+        <v>0</v>
       </c>
       <c r="B25" s="17">
         <v>3</v>
@@ -6807,8 +6843,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>4</v>
+      <c r="A26" s="11">
+        <v>0</v>
       </c>
       <c r="B26" s="17">
         <v>2</v>
@@ -6875,8 +6911,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>4</v>
+      <c r="A27" s="11">
+        <v>0</v>
       </c>
       <c r="B27" s="6">
         <v>5</v>
@@ -6958,7 +6994,9 @@
       <c r="N28" s="17"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="13"/>
+      <c r="Q28" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="R28" s="12">
         <f>AVERAGE(R4:R27)</f>
         <v>1.2291666666666667</v>
@@ -6988,18 +7026,20 @@
       <c r="N29" s="17"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="13"/>
+      <c r="Q29" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="R29" s="12">
-        <f>STDEV(R4:R27)/SQRT(COUNT(R4:R27))*1.96</f>
-        <v>0.19767206471598903</v>
+        <f>STDEV(R4:R27)/SQRT(COUNT(R4:R27))*2.1</f>
+        <v>0.21179149790998827</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" ref="S29:T29" si="4">STDEV(S4:S27)/SQRT(COUNT(S4:S27))*1.96</f>
-        <v>0.1279277599872769</v>
+        <f>STDEV(S4:S27)/SQRT(COUNT(S4:S27))*2.1</f>
+        <v>0.13706545712922527</v>
       </c>
       <c r="T29" s="12">
-        <f t="shared" si="4"/>
-        <v>0.21807347075548419</v>
+        <f>STDEV(T4:T27)/SQRT(COUNT(T4:T27))*2.1</f>
+        <v>0.2336501472380188</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -7021,8 +7061,8 @@
       <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>0</v>
+      <c r="A31" s="11">
+        <v>1</v>
       </c>
       <c r="B31" s="17">
         <v>6</v>
@@ -7089,8 +7129,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>0</v>
+      <c r="A32" s="11">
+        <v>1</v>
       </c>
       <c r="B32" s="17">
         <v>4</v>
@@ -7157,8 +7197,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>0</v>
+      <c r="A33" s="11">
+        <v>1</v>
       </c>
       <c r="B33" s="17">
         <v>2</v>
@@ -7225,8 +7265,8 @@
       </c>
     </row>
     <row r="34" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>0</v>
+      <c r="A34" s="11">
+        <v>1</v>
       </c>
       <c r="B34" s="17">
         <v>1</v>
@@ -7293,8 +7333,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>0</v>
+      <c r="A35" s="11">
+        <v>1</v>
       </c>
       <c r="B35" s="17">
         <v>2</v>
@@ -7361,8 +7401,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>0</v>
+      <c r="A36" s="11">
+        <v>1</v>
       </c>
       <c r="B36" s="17">
         <v>6</v>
@@ -7429,8 +7469,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>0</v>
+      <c r="A37" s="11">
+        <v>1</v>
       </c>
       <c r="B37" s="17">
         <v>1</v>
@@ -7497,8 +7537,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>0</v>
+      <c r="A38" s="11">
+        <v>1</v>
       </c>
       <c r="B38" s="17">
         <v>2</v>
@@ -7565,8 +7605,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>0</v>
+      <c r="A39" s="11">
+        <v>1</v>
       </c>
       <c r="B39" s="17">
         <v>1</v>
@@ -7633,8 +7673,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>0</v>
+      <c r="A40" s="11">
+        <v>1</v>
       </c>
       <c r="B40" s="17">
         <v>6</v>
@@ -7701,8 +7741,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>0</v>
+      <c r="A41" s="11">
+        <v>1</v>
       </c>
       <c r="B41" s="17">
         <v>3</v>
@@ -7769,8 +7809,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>0</v>
+      <c r="A42" s="11">
+        <v>1</v>
       </c>
       <c r="B42" s="17">
         <v>5</v>
@@ -7837,8 +7877,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>0</v>
+      <c r="A43" s="11">
+        <v>1</v>
       </c>
       <c r="B43" s="17">
         <v>7</v>
@@ -7905,8 +7945,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>0</v>
+      <c r="A44" s="11">
+        <v>1</v>
       </c>
       <c r="B44" s="17">
         <v>8</v>
@@ -7973,8 +8013,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>0</v>
+      <c r="A45" s="11">
+        <v>1</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -8041,8 +8081,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>0</v>
+      <c r="A46" s="11">
+        <v>1</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -8109,8 +8149,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>0</v>
+      <c r="A47" s="11">
+        <v>1</v>
       </c>
       <c r="B47" s="17">
         <v>5</v>
@@ -8177,8 +8217,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>0</v>
+      <c r="A48" s="11">
+        <v>1</v>
       </c>
       <c r="B48" s="17">
         <v>0</v>
@@ -8245,8 +8285,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>0</v>
+      <c r="A49" s="11">
+        <v>1</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -8313,8 +8353,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>0</v>
+      <c r="A50" s="11">
+        <v>1</v>
       </c>
       <c r="B50" s="17">
         <v>2</v>
@@ -8381,8 +8421,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>0</v>
+      <c r="A51" s="11">
+        <v>1</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -8449,8 +8489,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>0</v>
+      <c r="A52" s="11">
+        <v>1</v>
       </c>
       <c r="B52" s="17">
         <v>5</v>
@@ -8517,8 +8557,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>0</v>
+      <c r="A53" s="11">
+        <v>1</v>
       </c>
       <c r="B53" s="17">
         <v>15</v>
@@ -8585,8 +8625,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>0</v>
+      <c r="A54" s="11">
+        <v>1</v>
       </c>
       <c r="B54" s="17">
         <v>8</v>
@@ -8653,8 +8693,8 @@
       </c>
     </row>
     <row r="55" spans="1:21" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>0</v>
+      <c r="A55" s="11">
+        <v>1</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -8721,8 +8761,8 @@
       </c>
     </row>
     <row r="56" spans="1:21" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>0</v>
+      <c r="A56" s="11">
+        <v>1</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -8804,17 +8844,19 @@
       <c r="N57" s="17"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
-      <c r="Q57" s="13"/>
+      <c r="Q57" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="R57" s="12">
         <f>AVERAGE(R31:R56)</f>
         <v>1.4615384615384615</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" ref="S57:T57" si="5">AVERAGE(S31:S56)</f>
+        <f t="shared" ref="S57:T57" si="4">AVERAGE(S31:S56)</f>
         <v>0.29807692307692307</v>
       </c>
       <c r="T57" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7980769230769231</v>
       </c>
     </row>
@@ -8834,18 +8876,20 @@
       <c r="N58" s="17"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
-      <c r="Q58" s="13"/>
+      <c r="Q58" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="R58" s="12">
-        <f>STDEV(R31:R56)/SQRT(COUNT(R31:R56))*1.96</f>
-        <v>0.30229136773304854</v>
+        <f>STDEV(R31:R56)/SQRT(COUNT(R31:R56))*2.1</f>
+        <v>0.32388360828540913</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" ref="S58:T58" si="6">STDEV(S31:S56)/SQRT(COUNT(S31:S56))*1.96</f>
-        <v>0.13864417441995794</v>
+        <f>STDEV(S31:S56)/SQRT(COUNT(S31:S56))*2.1</f>
+        <v>0.14854732973566923</v>
       </c>
       <c r="T58" s="12">
-        <f t="shared" si="6"/>
-        <v>0.27046693133680044</v>
+        <f>STDEV(T31:T56)/SQRT(COUNT(T31:T56))*2.1</f>
+        <v>0.28978599786085762</v>
       </c>
     </row>
     <row r="59" spans="1:21" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
@@ -9356,9 +9400,6 @@
     <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A4:U53">
-    <sortCondition ref="A4:A53"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
